--- a/заказы/статистика филиалы/2023/10,23/25,10,23 КИ/дв 25,10,23 мррсч.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/25,10,23 КИ/дв 25,10,23 мррсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,10,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\25,10,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83DC6A7-4D26-495B-985E-4849324D6FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57671FB2-4416-43CD-A4DB-B6F554D6EF75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,10 +264,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -2906,7 +2910,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
